--- a/sample_attendance_record.xlsx
+++ b/sample_attendance_record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatakakimura/Documents/attendance_record/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336F7008-E90E-5A44-8246-94417E434707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E0BF50-3C84-C646-B107-52CE7A956765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16460" xr2:uid="{A744A305-D6D4-9145-BBE5-51445DCE0311}"/>
   </bookViews>
@@ -798,9 +798,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1210,9 +1210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8313AEA6-42E9-2B42-80C3-7EB587038025}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="5.7109375" defaultRowHeight="30" customHeight="1"/>
   <cols>
@@ -1245,17 +1243,17 @@
       <c r="H1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="48"/>
-      <c r="V1" s="38" t="s">
+      <c r="U1" s="47"/>
+      <c r="V1" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="39"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="38"/>
     </row>
     <row r="2" spans="1:27" ht="30" customHeight="1">
       <c r="E2" s="31" t="s">
@@ -1274,17 +1272,17 @@
       <c r="P2" s="31"/>
       <c r="Q2" s="31"/>
       <c r="R2" s="31"/>
-      <c r="T2" s="47" t="s">
+      <c r="T2" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="40" t="s">
+      <c r="U2" s="47"/>
+      <c r="V2" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="41"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="40"/>
     </row>
     <row r="3" spans="1:27" ht="30" customHeight="1">
       <c r="R3" t="s">
@@ -1293,83 +1291,83 @@
       <c r="S3" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="47" t="s">
+      <c r="T3" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="48"/>
-      <c r="V3" s="40" t="s">
+      <c r="U3" s="47"/>
+      <c r="V3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="41"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="40"/>
     </row>
     <row r="4" spans="1:27" ht="25" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="33"/>
+      <c r="F4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="42" t="s">
+      <c r="K4" s="42"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="42" t="s">
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="44"/>
-      <c r="S4" s="36" t="s">
+      <c r="Q4" s="42"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="45" t="s">
+      <c r="T4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="U4" s="34" t="s">
+      <c r="U4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="34" t="s">
+      <c r="X4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="Z4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AA4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="25" customHeight="1">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
@@ -1409,15 +1407,15 @@
       <c r="R5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="46"/>
-      <c r="U5" s="35"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="35"/>
-      <c r="Y5" s="35"/>
-      <c r="Z5" s="35"/>
-      <c r="AA5" s="35"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="45"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
     </row>
     <row r="6" spans="1:27" ht="30" customHeight="1">
       <c r="B6" s="13">
@@ -2847,20 +2845,20 @@
       <c r="AA37" s="13"/>
     </row>
     <row r="39" spans="1:27" ht="30" customHeight="1">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
     </row>
     <row r="40" spans="1:27" ht="20" customHeight="1">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D40" s="27" t="s">
@@ -2915,9 +2913,9 @@
       </c>
     </row>
     <row r="41" spans="1:27" ht="20" customHeight="1">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="12" t="s">
         <v>8</v>
       </c>
@@ -3006,7 +3004,7 @@
         <f>COUNTIF(D6:D36, "夏休")</f>
         <v>2</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="48">
         <f>I37</f>
         <v>4.916666666666667</v>
       </c>
@@ -3091,7 +3089,7 @@
       <c r="F43" s="27"/>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
-      <c r="I43" s="32"/>
+      <c r="I43" s="48"/>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
       <c r="L43" s="27"/>
